--- a/marks/Presence and active participation.xlsx
+++ b/marks/Presence and active participation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IAI Teaching Documents\Level 3\Advanced Object-oriented Programming (Flask, Django)\marks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5B6020-52A4-4B54-91B7-40C4CD966309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81405EB-F051-47C8-BA88-CCD11AFE0C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1395" windowWidth="25440" windowHeight="15990" xr2:uid="{DD578015-E2BF-4F84-825B-557F3366BDF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DD578015-E2BF-4F84-825B-557F3366BDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,75 @@
   </si>
   <si>
     <t>Fosso Stephane</t>
+  </si>
+  <si>
+    <t>Wanki Jefferson</t>
+  </si>
+  <si>
+    <t>Wayanne Enama Andy</t>
+  </si>
+  <si>
+    <t>Teuma Sadie Dorcel Kenedy</t>
+  </si>
+  <si>
+    <t>Dzelamonyuy Honore</t>
+  </si>
+  <si>
+    <t>Fouda Bikoun Joseph</t>
+  </si>
+  <si>
+    <t>Muma Peace</t>
+  </si>
+  <si>
+    <t>Nandjou Franck</t>
+  </si>
+  <si>
+    <t>Mpaka Djonou Daniel</t>
+  </si>
+  <si>
+    <t>Ndome I Stephane Harry</t>
+  </si>
+  <si>
+    <t>Bindzi Mani Obrich Junior</t>
+  </si>
+  <si>
+    <t>Bill Nelson</t>
+  </si>
+  <si>
+    <t>Monjie Arouna Raoul</t>
+  </si>
+  <si>
+    <t>Mendomo Sazang Ines</t>
+  </si>
+  <si>
+    <t>Biye Mekoulou Himelda</t>
+  </si>
+  <si>
+    <t>Tsobgny Tiomo Cantin</t>
+  </si>
+  <si>
+    <t>Kamga Thierry</t>
+  </si>
+  <si>
+    <t>Epah Fonzock Manyi</t>
+  </si>
+  <si>
+    <t>Raingou Ngouyap Herbert</t>
+  </si>
+  <si>
+    <t>Wemayi Temouafo Evrard Kevin</t>
+  </si>
+  <si>
+    <t>Hans Manfred Elakie</t>
+  </si>
+  <si>
+    <t>Oyoam Limoveba Christian</t>
+  </si>
+  <si>
+    <t>Djoumessi Dylan N</t>
+  </si>
+  <si>
+    <t>Tenda Pharel</t>
   </si>
 </sst>
 </file>
@@ -527,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B4D64-8195-4CE6-A9E3-21E51FEB911E}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,79 +780,400 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
